--- a/TCOA_mean_sd_trembling_rambling_by_cohort.xlsx
+++ b/TCOA_mean_sd_trembling_rambling_by_cohort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Cohort</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Standard_Deviation</t>
+  </si>
+  <si>
+    <t>Participants</t>
   </si>
   <si>
     <t>100s</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,16 +432,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0.03753848007632614</v>
@@ -446,16 +452,19 @@
       <c r="E2">
         <v>0.3680846864594476</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>-0.6525374919184632</v>
@@ -463,16 +472,19 @@
       <c r="E3">
         <v>2.12290261295263</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>5.04686978164658E-06</v>
@@ -480,16 +492,19 @@
       <c r="E4">
         <v>0.0001824016459027505</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0.0001138886250499958</v>
@@ -497,16 +512,19 @@
       <c r="E5">
         <v>0.001254901350787433</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>0.09141858221557789</v>
@@ -514,16 +532,19 @@
       <c r="E6">
         <v>0.08643723189983413</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1.158333760636301</v>
@@ -531,16 +552,19 @@
       <c r="E7">
         <v>1.025656775636496</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>-4.00536441492924E-05</v>
@@ -548,16 +572,19 @@
       <c r="E8">
         <v>0.0002693847963389705</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>-0.0005042534934436519</v>
@@ -565,16 +592,19 @@
       <c r="E9">
         <v>0.00293672151377701</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>-0.1261836697620376</v>
@@ -582,16 +612,19 @@
       <c r="E10">
         <v>0.4144918239492649</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0.0737564316792986</v>
@@ -599,16 +632,19 @@
       <c r="E11">
         <v>2.477952786456127</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>2.892777962288128E-06</v>
@@ -616,22 +652,28 @@
       <c r="E12">
         <v>0.0002956378091054432</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0.0001710646866651648</v>
       </c>
       <c r="E13">
         <v>0.003928471520335145</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
